--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -1,304 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15615" windowHeight="7560"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15615" windowHeight="7560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
-  <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>*items</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-  </si>
-  <si>
-    <t>枚举名</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>test.ETestQuality</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>黑色的</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>test.AccessFlag</t>
-  </si>
-  <si>
-    <t>WRITE</t>
-  </si>
-  <si>
-    <t>READ</t>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -598,161 +471,162 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,11 +680,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1070,213 +1007,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.24761904761905" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.38095238095238" customWidth="1"/>
-    <col min="7" max="7" width="7.57142857142857" customWidth="1"/>
-    <col min="8" max="8" width="13.5047619047619" customWidth="1"/>
-    <col min="10" max="10" width="12.6285714285714" customWidth="1"/>
+    <col width="19" customWidth="1" style="2" min="2" max="2"/>
+    <col width="8.24761904761905" customWidth="1" style="2" min="3" max="3"/>
+    <col width="10" customWidth="1" style="2" min="4" max="5"/>
+    <col width="9.38095238095238" customWidth="1" style="2" min="6" max="6"/>
+    <col width="7.57142857142857" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.5047619047619" customWidth="1" style="2" min="8" max="8"/>
+    <col width="12.6285714285714" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>full_name</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>flags</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>*items</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>全名(包含模块和名字)</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>枚举项是否唯一</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>枚举名</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>别名</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>注释</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>test.ETestQuality</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D4" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>最高品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>黑色的</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>蓝</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>蓝色的</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>红</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>最差品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>test.AccessFlag</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WRITE</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>READ</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>TRUNCATE</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>READ_WRITE</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>WRITE|READ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test.ItemRarity</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>物品稀有度</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>COMMON</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>普通品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>UNCOMMON</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>优秀品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>RARE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>稀有</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>稀有品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>EPIC</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>史诗</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>史诗品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>LEGENDARY</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>传说</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="8:11">
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="8:11">
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="8:11">
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10">
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="8:10">
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>传说品质</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1420,6 @@
     <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1300,118 +1300,1114 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>test.ItemRarity</t>
         </is>
       </c>
-      <c r="C13" t="b">
+      <c r="C13" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D13" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>物品稀有度</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>COMMON</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="0" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="0" t="inlineStr">
         <is>
           <t>普通品质</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>UNCOMMON</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="0" t="inlineStr">
         <is>
           <t>优秀</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="0" t="inlineStr">
         <is>
           <t>优秀品质</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>RARE</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="0" t="inlineStr">
         <is>
           <t>稀有</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="0" t="inlineStr">
         <is>
           <t>稀有品质</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>EPIC</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="0" t="inlineStr">
         <is>
           <t>史诗</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>史诗品质</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>LEGENDARY</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="0" t="inlineStr">
         <is>
           <t>传说</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="0" t="inlineStr">
         <is>
           <t>传说品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr"/>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr"/>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>物品品质</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>COMMON</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>普通品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr"/>
+      <c r="B19" s="0" t="inlineStr"/>
+      <c r="C19" s="0" t="inlineStr"/>
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr"/>
+      <c r="F19" s="0" t="inlineStr"/>
+      <c r="G19" s="0" t="inlineStr"/>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>RARE</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>稀有</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>稀有品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr"/>
+      <c r="B20" s="0" t="inlineStr"/>
+      <c r="C20" s="0" t="inlineStr"/>
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr"/>
+      <c r="F20" s="0" t="inlineStr"/>
+      <c r="G20" s="0" t="inlineStr"/>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>EPIC</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>史诗</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>史诗品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr"/>
+      <c r="B21" s="0" t="inlineStr"/>
+      <c r="C21" s="0" t="inlineStr"/>
+      <c r="D21" s="0" t="inlineStr"/>
+      <c r="E21" s="0" t="inlineStr"/>
+      <c r="F21" s="0" t="inlineStr"/>
+      <c r="G21" s="0" t="inlineStr"/>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>LEGENDARY</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>传说</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>传说品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr"/>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>ItemType</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr"/>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>物品类型</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr"/>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>CONSUMABLE</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>消耗品</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>消耗品类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr"/>
+      <c r="B23" s="0" t="inlineStr"/>
+      <c r="C23" s="0" t="inlineStr"/>
+      <c r="D23" s="0" t="inlineStr"/>
+      <c r="E23" s="0" t="inlineStr"/>
+      <c r="F23" s="0" t="inlineStr"/>
+      <c r="G23" s="0" t="inlineStr"/>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>MATERIAL</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>材料</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>材料类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr"/>
+      <c r="B24" s="0" t="inlineStr"/>
+      <c r="C24" s="0" t="inlineStr"/>
+      <c r="D24" s="0" t="inlineStr"/>
+      <c r="E24" s="0" t="inlineStr"/>
+      <c r="F24" s="0" t="inlineStr"/>
+      <c r="G24" s="0" t="inlineStr"/>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>装备</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>装备类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr"/>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>EquipSlot</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr"/>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>装备槽位</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr"/>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>WEAPON</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>武器</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>武器槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr"/>
+      <c r="B26" s="0" t="inlineStr"/>
+      <c r="C26" s="0" t="inlineStr"/>
+      <c r="D26" s="0" t="inlineStr"/>
+      <c r="E26" s="0" t="inlineStr"/>
+      <c r="F26" s="0" t="inlineStr"/>
+      <c r="G26" s="0" t="inlineStr"/>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>ARMOR</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>护甲</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>护甲槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr"/>
+      <c r="B27" s="0" t="inlineStr"/>
+      <c r="C27" s="0" t="inlineStr"/>
+      <c r="D27" s="0" t="inlineStr"/>
+      <c r="E27" s="0" t="inlineStr"/>
+      <c r="F27" s="0" t="inlineStr"/>
+      <c r="G27" s="0" t="inlineStr"/>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>HELMET</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>头盔</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>头盔槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr"/>
+      <c r="B28" s="0" t="inlineStr"/>
+      <c r="C28" s="0" t="inlineStr"/>
+      <c r="D28" s="0" t="inlineStr"/>
+      <c r="E28" s="0" t="inlineStr"/>
+      <c r="F28" s="0" t="inlineStr"/>
+      <c r="G28" s="0" t="inlineStr"/>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>BOOTS</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>靴子</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>靴子槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr"/>
+      <c r="B29" s="0" t="inlineStr"/>
+      <c r="C29" s="0" t="inlineStr"/>
+      <c r="D29" s="0" t="inlineStr"/>
+      <c r="E29" s="0" t="inlineStr"/>
+      <c r="F29" s="0" t="inlineStr"/>
+      <c r="G29" s="0" t="inlineStr"/>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>ACCESSORY</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>饰品</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>饰品槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr"/>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>EquipSlot</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr"/>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>装备槽位</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr"/>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>WEAPON</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>武器</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>武器槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr"/>
+      <c r="B31" s="0" t="inlineStr"/>
+      <c r="C31" s="0" t="inlineStr"/>
+      <c r="D31" s="0" t="inlineStr"/>
+      <c r="E31" s="0" t="inlineStr"/>
+      <c r="F31" s="0" t="inlineStr"/>
+      <c r="G31" s="0" t="inlineStr"/>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>ARMOR</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>护甲</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>护甲槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr"/>
+      <c r="B32" s="0" t="inlineStr"/>
+      <c r="C32" s="0" t="inlineStr"/>
+      <c r="D32" s="0" t="inlineStr"/>
+      <c r="E32" s="0" t="inlineStr"/>
+      <c r="F32" s="0" t="inlineStr"/>
+      <c r="G32" s="0" t="inlineStr"/>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>HELMET</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>头盔</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>头盔槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr"/>
+      <c r="B33" s="0" t="inlineStr"/>
+      <c r="C33" s="0" t="inlineStr"/>
+      <c r="D33" s="0" t="inlineStr"/>
+      <c r="E33" s="0" t="inlineStr"/>
+      <c r="F33" s="0" t="inlineStr"/>
+      <c r="G33" s="0" t="inlineStr"/>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>BOOTS</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>靴子</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>靴子槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr"/>
+      <c r="B34" s="0" t="inlineStr"/>
+      <c r="C34" s="0" t="inlineStr"/>
+      <c r="D34" s="0" t="inlineStr"/>
+      <c r="E34" s="0" t="inlineStr"/>
+      <c r="F34" s="0" t="inlineStr"/>
+      <c r="G34" s="0" t="inlineStr"/>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>ACCESSORY</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>饰品</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>饰品槽</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr"/>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr"/>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>元素类型</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr"/>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>PHYSICAL</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr"/>
+      <c r="B36" s="0" t="inlineStr"/>
+      <c r="C36" s="0" t="inlineStr"/>
+      <c r="D36" s="0" t="inlineStr"/>
+      <c r="E36" s="0" t="inlineStr"/>
+      <c r="F36" s="0" t="inlineStr"/>
+      <c r="G36" s="0" t="inlineStr"/>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>FIRE</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr"/>
+      <c r="B37" s="0" t="inlineStr"/>
+      <c r="C37" s="0" t="inlineStr"/>
+      <c r="D37" s="0" t="inlineStr"/>
+      <c r="E37" s="0" t="inlineStr"/>
+      <c r="F37" s="0" t="inlineStr"/>
+      <c r="G37" s="0" t="inlineStr"/>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>冰</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr"/>
+      <c r="B38" s="0" t="inlineStr"/>
+      <c r="C38" s="0" t="inlineStr"/>
+      <c r="D38" s="0" t="inlineStr"/>
+      <c r="E38" s="0" t="inlineStr"/>
+      <c r="F38" s="0" t="inlineStr"/>
+      <c r="G38" s="0" t="inlineStr"/>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>LIGHTNING</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>雷</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr"/>
+      <c r="B39" s="0" t="inlineStr"/>
+      <c r="C39" s="0" t="inlineStr"/>
+      <c r="D39" s="0" t="inlineStr"/>
+      <c r="E39" s="0" t="inlineStr"/>
+      <c r="F39" s="0" t="inlineStr"/>
+      <c r="G39" s="0" t="inlineStr"/>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>HOLY</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>神圣</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr"/>
+      <c r="B40" s="0" t="inlineStr"/>
+      <c r="C40" s="0" t="inlineStr"/>
+      <c r="D40" s="0" t="inlineStr"/>
+      <c r="E40" s="0" t="inlineStr"/>
+      <c r="F40" s="0" t="inlineStr"/>
+      <c r="G40" s="0" t="inlineStr"/>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>DARK</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>黑暗</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr"/>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>BuffType</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr"/>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>Buff类型</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr"/>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr"/>
+      <c r="B42" s="0" t="inlineStr"/>
+      <c r="C42" s="0" t="inlineStr"/>
+      <c r="D42" s="0" t="inlineStr"/>
+      <c r="E42" s="0" t="inlineStr"/>
+      <c r="F42" s="0" t="inlineStr"/>
+      <c r="G42" s="0" t="inlineStr"/>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>POSITIVE</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>正面</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr"/>
+      <c r="B43" s="0" t="inlineStr"/>
+      <c r="C43" s="0" t="inlineStr"/>
+      <c r="D43" s="0" t="inlineStr"/>
+      <c r="E43" s="0" t="inlineStr"/>
+      <c r="F43" s="0" t="inlineStr"/>
+      <c r="G43" s="0" t="inlineStr"/>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>NEGATIVE</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>负面</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr"/>
+      <c r="B44" s="0" t="inlineStr"/>
+      <c r="C44" s="0" t="inlineStr"/>
+      <c r="D44" s="0" t="inlineStr"/>
+      <c r="E44" s="0" t="inlineStr"/>
+      <c r="F44" s="0" t="inlineStr"/>
+      <c r="G44" s="0" t="inlineStr"/>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>DISPELLABLE</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>可驱散</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr"/>
+      <c r="B45" s="0" t="inlineStr"/>
+      <c r="C45" s="0" t="inlineStr"/>
+      <c r="D45" s="0" t="inlineStr"/>
+      <c r="E45" s="0" t="inlineStr"/>
+      <c r="F45" s="0" t="inlineStr"/>
+      <c r="G45" s="0" t="inlineStr"/>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>STACKABLE</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>可叠加</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K45" s="0" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QuestType</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>任务类型</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>主线</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>主线任务</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SIDE</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>支线</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>支线任务</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>DAILY</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>日常</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>日常任务</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>EVENT</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>活动任务</t>
         </is>
       </c>
     </row>
